--- a/natmiOut/OldD2/LR-pairs_lrc2p/Jag2-Notch2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Jag2-Notch2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.2956008327139</v>
+        <v>18.301715</v>
       </c>
       <c r="H2">
-        <v>18.2956008327139</v>
+        <v>36.60343</v>
       </c>
       <c r="I2">
-        <v>0.469799129226562</v>
+        <v>0.4544165459658234</v>
       </c>
       <c r="J2">
-        <v>0.469799129226562</v>
+        <v>0.3632302676703625</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N2">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O2">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P2">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q2">
-        <v>22.70815392820512</v>
+        <v>23.117390362805</v>
       </c>
       <c r="R2">
-        <v>22.70815392820512</v>
+        <v>92.46956145122</v>
       </c>
       <c r="S2">
-        <v>0.004217791961458462</v>
+        <v>0.00402327906581944</v>
       </c>
       <c r="T2">
-        <v>0.004217791961458462</v>
+        <v>0.002310006809279264</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.2956008327139</v>
+        <v>18.301715</v>
       </c>
       <c r="H3">
-        <v>18.2956008327139</v>
+        <v>36.60343</v>
       </c>
       <c r="I3">
-        <v>0.469799129226562</v>
+        <v>0.4544165459658234</v>
       </c>
       <c r="J3">
-        <v>0.469799129226562</v>
+        <v>0.3632302676703625</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N3">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O3">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P3">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q3">
-        <v>288.5871709328019</v>
+        <v>302.9801028762417</v>
       </c>
       <c r="R3">
-        <v>288.5871709328019</v>
+        <v>1817.88061725745</v>
       </c>
       <c r="S3">
-        <v>0.05360191997943798</v>
+        <v>0.0527297193208748</v>
       </c>
       <c r="T3">
-        <v>0.05360191997943798</v>
+        <v>0.04541296117789793</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.2956008327139</v>
+        <v>18.301715</v>
       </c>
       <c r="H4">
-        <v>18.2956008327139</v>
+        <v>36.60343</v>
       </c>
       <c r="I4">
-        <v>0.469799129226562</v>
+        <v>0.4544165459658234</v>
       </c>
       <c r="J4">
-        <v>0.469799129226562</v>
+        <v>0.3632302676703625</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N4">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O4">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P4">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q4">
-        <v>769.4694095270554</v>
+        <v>790.1558580864785</v>
       </c>
       <c r="R4">
-        <v>769.4694095270554</v>
+        <v>4740.935148518871</v>
       </c>
       <c r="S4">
-        <v>0.1429205518137832</v>
+        <v>0.1375162798517623</v>
       </c>
       <c r="T4">
-        <v>0.1429205518137832</v>
+        <v>0.1184345670462299</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.2956008327139</v>
+        <v>18.301715</v>
       </c>
       <c r="H5">
-        <v>18.2956008327139</v>
+        <v>36.60343</v>
       </c>
       <c r="I5">
-        <v>0.469799129226562</v>
+        <v>0.4544165459658234</v>
       </c>
       <c r="J5">
-        <v>0.469799129226562</v>
+        <v>0.3632302676703625</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N5">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O5">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P5">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q5">
-        <v>918.7614036366018</v>
+        <v>923.7833228240235</v>
       </c>
       <c r="R5">
-        <v>918.7614036366018</v>
+        <v>5542.699936944141</v>
       </c>
       <c r="S5">
-        <v>0.1706499117016972</v>
+        <v>0.1607723902110917</v>
       </c>
       <c r="T5">
-        <v>0.1706499117016972</v>
+        <v>0.1384636673429772</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.2956008327139</v>
+        <v>18.301715</v>
       </c>
       <c r="H6">
-        <v>18.2956008327139</v>
+        <v>36.60343</v>
       </c>
       <c r="I6">
-        <v>0.469799129226562</v>
+        <v>0.4544165459658234</v>
       </c>
       <c r="J6">
-        <v>0.469799129226562</v>
+        <v>0.3632302676703625</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N6">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O6">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P6">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q6">
-        <v>29.82054627182316</v>
+        <v>31.06254307974834</v>
       </c>
       <c r="R6">
-        <v>29.82054627182316</v>
+        <v>186.37525847849</v>
       </c>
       <c r="S6">
-        <v>0.005538841279183516</v>
+        <v>0.005406028852847649</v>
       </c>
       <c r="T6">
-        <v>0.005538841279183516</v>
+        <v>0.004655890104914244</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.2956008327139</v>
+        <v>18.301715</v>
       </c>
       <c r="H7">
-        <v>18.2956008327139</v>
+        <v>36.60343</v>
       </c>
       <c r="I7">
-        <v>0.469799129226562</v>
+        <v>0.4544165459658234</v>
       </c>
       <c r="J7">
-        <v>0.469799129226562</v>
+        <v>0.3632302676703625</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.3291402792182</v>
+        <v>29.501953</v>
       </c>
       <c r="N7">
-        <v>27.3291402792182</v>
+        <v>59.003906</v>
       </c>
       <c r="O7">
-        <v>0.1976804696166534</v>
+        <v>0.2067901125028462</v>
       </c>
       <c r="P7">
-        <v>0.1976804696166534</v>
+        <v>0.1485371126561165</v>
       </c>
       <c r="Q7">
-        <v>500.0030416498196</v>
+        <v>539.9363357493951</v>
       </c>
       <c r="R7">
-        <v>500.0030416498196</v>
+        <v>2159.74534299758</v>
       </c>
       <c r="S7">
-        <v>0.09287011249100161</v>
+        <v>0.0939688486634274</v>
       </c>
       <c r="T7">
-        <v>0.09287011249100161</v>
+        <v>0.05395317518906398</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.194277660268485</v>
+        <v>0.2426546666666667</v>
       </c>
       <c r="H8">
-        <v>0.194277660268485</v>
+        <v>0.7279639999999999</v>
       </c>
       <c r="I8">
-        <v>0.004988711573719289</v>
+        <v>0.006024915997716873</v>
       </c>
       <c r="J8">
-        <v>0.004988711573719289</v>
+        <v>0.007223873789270233</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N8">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O8">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P8">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q8">
-        <v>0.2411337596686013</v>
+        <v>0.3065036611426666</v>
       </c>
       <c r="R8">
-        <v>0.2411337596686013</v>
+        <v>1.839021966856</v>
       </c>
       <c r="S8">
-        <v>4.4787966312983E-05</v>
+        <v>5.334294849544943E-05</v>
       </c>
       <c r="T8">
-        <v>4.4787966312983E-05</v>
+        <v>4.594109887816988E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.194277660268485</v>
+        <v>0.2426546666666667</v>
       </c>
       <c r="H9">
-        <v>0.194277660268485</v>
+        <v>0.7279639999999999</v>
       </c>
       <c r="I9">
-        <v>0.004988711573719289</v>
+        <v>0.006024915997716873</v>
       </c>
       <c r="J9">
-        <v>0.004988711573719289</v>
+        <v>0.007223873789270233</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N9">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O9">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P9">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q9">
-        <v>3.064454721381756</v>
+        <v>4.017084512028888</v>
       </c>
       <c r="R9">
-        <v>3.064454721381756</v>
+        <v>36.15376060825999</v>
       </c>
       <c r="S9">
-        <v>0.0005691890468490861</v>
+        <v>0.0006991209547976114</v>
       </c>
       <c r="T9">
-        <v>0.0005691890468490861</v>
+        <v>0.0009031667488786512</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.194277660268485</v>
+        <v>0.2426546666666667</v>
       </c>
       <c r="H10">
-        <v>0.194277660268485</v>
+        <v>0.7279639999999999</v>
       </c>
       <c r="I10">
-        <v>0.004988711573719289</v>
+        <v>0.006024915997716873</v>
       </c>
       <c r="J10">
-        <v>0.004988711573719289</v>
+        <v>0.007223873789270233</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N10">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O10">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P10">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q10">
-        <v>8.170855819273694</v>
+        <v>10.47634095267511</v>
       </c>
       <c r="R10">
-        <v>8.170855819273694</v>
+        <v>94.287068574076</v>
       </c>
       <c r="S10">
-        <v>0.001517647365863733</v>
+        <v>0.001823269953043714</v>
       </c>
       <c r="T10">
-        <v>0.001517647365863733</v>
+        <v>0.002355410440093775</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.194277660268485</v>
+        <v>0.2426546666666667</v>
       </c>
       <c r="H11">
-        <v>0.194277660268485</v>
+        <v>0.7279639999999999</v>
       </c>
       <c r="I11">
-        <v>0.004988711573719289</v>
+        <v>0.006024915997716873</v>
       </c>
       <c r="J11">
-        <v>0.004988711573719289</v>
+        <v>0.007223873789270233</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N11">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O11">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P11">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q11">
-        <v>9.756160372954032</v>
+        <v>12.24805075765244</v>
       </c>
       <c r="R11">
-        <v>9.756160372954032</v>
+        <v>110.232456818872</v>
       </c>
       <c r="S11">
-        <v>0.001812100399083283</v>
+        <v>0.002131612843707582</v>
       </c>
       <c r="T11">
-        <v>0.001812100399083283</v>
+        <v>0.002753746442168481</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.194277660268485</v>
+        <v>0.2426546666666667</v>
       </c>
       <c r="H12">
-        <v>0.194277660268485</v>
+        <v>0.7279639999999999</v>
       </c>
       <c r="I12">
-        <v>0.004988711573719289</v>
+        <v>0.006024915997716873</v>
       </c>
       <c r="J12">
-        <v>0.004988711573719289</v>
+        <v>0.007223873789270233</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N12">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O12">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P12">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q12">
-        <v>0.3166589613858839</v>
+        <v>0.4118450668057778</v>
       </c>
       <c r="R12">
-        <v>0.3166589613858839</v>
+        <v>3.706605601252</v>
       </c>
       <c r="S12">
-        <v>5.881594893534062E-05</v>
+        <v>7.167624068444561E-05</v>
       </c>
       <c r="T12">
-        <v>5.881594893534062E-05</v>
+        <v>9.259570440075678E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.194277660268485</v>
+        <v>0.2426546666666667</v>
       </c>
       <c r="H13">
-        <v>0.194277660268485</v>
+        <v>0.7279639999999999</v>
       </c>
       <c r="I13">
-        <v>0.004988711573719289</v>
+        <v>0.006024915997716873</v>
       </c>
       <c r="J13">
-        <v>0.004988711573719289</v>
+        <v>0.007223873789270233</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.3291402792182</v>
+        <v>29.501953</v>
       </c>
       <c r="N13">
-        <v>27.3291402792182</v>
+        <v>59.003906</v>
       </c>
       <c r="O13">
-        <v>0.1976804696166534</v>
+        <v>0.2067901125028462</v>
       </c>
       <c r="P13">
-        <v>0.1976804696166534</v>
+        <v>0.1485371126561165</v>
       </c>
       <c r="Q13">
-        <v>5.309441430595723</v>
+        <v>7.158786571230666</v>
       </c>
       <c r="R13">
-        <v>5.309441430595723</v>
+        <v>42.952719427384</v>
       </c>
       <c r="S13">
-        <v>0.000986170846674863</v>
+        <v>0.00124589305698807</v>
       </c>
       <c r="T13">
-        <v>0.000986170846674863</v>
+        <v>0.0010730133548504</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.59066778602777</v>
+        <v>1.82251</v>
       </c>
       <c r="H14">
-        <v>1.59066778602777</v>
+        <v>5.46753</v>
       </c>
       <c r="I14">
-        <v>0.04084557526136947</v>
+        <v>0.0452514258466036</v>
       </c>
       <c r="J14">
-        <v>0.04084557526136947</v>
+        <v>0.05425645589486387</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N14">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O14">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P14">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q14">
-        <v>1.974306789048904</v>
+        <v>2.30206158877</v>
       </c>
       <c r="R14">
-        <v>1.974306789048904</v>
+        <v>13.81236953262</v>
       </c>
       <c r="S14">
-        <v>0.0003667059563992277</v>
+        <v>0.0004006436735708423</v>
       </c>
       <c r="T14">
-        <v>0.0003667059563992277</v>
+        <v>0.0003450504919877359</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.59066778602777</v>
+        <v>1.82251</v>
       </c>
       <c r="H15">
-        <v>1.59066778602777</v>
+        <v>5.46753</v>
       </c>
       <c r="I15">
-        <v>0.04084557526136947</v>
+        <v>0.0452514258466036</v>
       </c>
       <c r="J15">
-        <v>0.04084557526136947</v>
+        <v>0.05425645589486387</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N15">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O15">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P15">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q15">
-        <v>25.09052971044758</v>
+        <v>30.17117615988333</v>
       </c>
       <c r="R15">
-        <v>25.09052971044758</v>
+        <v>271.54058543895</v>
       </c>
       <c r="S15">
-        <v>0.004660292283381805</v>
+        <v>0.005250898113072329</v>
       </c>
       <c r="T15">
-        <v>0.004660292283381805</v>
+        <v>0.006783427881731092</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.59066778602777</v>
+        <v>1.82251</v>
       </c>
       <c r="H16">
-        <v>1.59066778602777</v>
+        <v>5.46753</v>
       </c>
       <c r="I16">
-        <v>0.04084557526136947</v>
+        <v>0.0452514258466036</v>
       </c>
       <c r="J16">
-        <v>0.04084557526136947</v>
+        <v>0.05425645589486387</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N16">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O16">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P16">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q16">
-        <v>66.89969972890678</v>
+        <v>78.68480920619668</v>
       </c>
       <c r="R16">
-        <v>66.89969972890678</v>
+        <v>708.16328285577</v>
       </c>
       <c r="S16">
-        <v>0.01242588968846535</v>
+        <v>0.01369406064910504</v>
       </c>
       <c r="T16">
-        <v>0.01242588968846535</v>
+        <v>0.0176908160891554</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.59066778602777</v>
+        <v>1.82251</v>
       </c>
       <c r="H17">
-        <v>1.59066778602777</v>
+        <v>5.46753</v>
       </c>
       <c r="I17">
-        <v>0.04084557526136947</v>
+        <v>0.0452514258466036</v>
       </c>
       <c r="J17">
-        <v>0.04084557526136947</v>
+        <v>0.05425645589486387</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N17">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O17">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P17">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q17">
-        <v>79.87953941349815</v>
+        <v>91.99161628732668</v>
       </c>
       <c r="R17">
-        <v>79.87953941349815</v>
+        <v>827.9245465859401</v>
       </c>
       <c r="S17">
-        <v>0.01483675336570555</v>
+        <v>0.01600993616628915</v>
       </c>
       <c r="T17">
-        <v>0.01483675336570555</v>
+        <v>0.02068260420151194</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.59066778602777</v>
+        <v>1.82251</v>
       </c>
       <c r="H18">
-        <v>1.59066778602777</v>
+        <v>5.46753</v>
       </c>
       <c r="I18">
-        <v>0.04084557526136947</v>
+        <v>0.0452514258466036</v>
       </c>
       <c r="J18">
-        <v>0.04084557526136947</v>
+        <v>0.05425645589486387</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N18">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O18">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P18">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q18">
-        <v>2.592676936388065</v>
+        <v>3.093250844976667</v>
       </c>
       <c r="R18">
-        <v>2.592676936388065</v>
+        <v>27.83925760479</v>
       </c>
       <c r="S18">
-        <v>0.0004815614679876657</v>
+        <v>0.0005383398028328695</v>
       </c>
       <c r="T18">
-        <v>0.0004815614679876657</v>
+        <v>0.0006954599289007008</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.59066778602777</v>
+        <v>1.82251</v>
       </c>
       <c r="H19">
-        <v>1.59066778602777</v>
+        <v>5.46753</v>
       </c>
       <c r="I19">
-        <v>0.04084557526136947</v>
+        <v>0.0452514258466036</v>
       </c>
       <c r="J19">
-        <v>0.04084557526136947</v>
+        <v>0.05425645589486387</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>27.3291402792182</v>
+        <v>29.501953</v>
       </c>
       <c r="N19">
-        <v>27.3291402792182</v>
+        <v>59.003906</v>
       </c>
       <c r="O19">
-        <v>0.1976804696166534</v>
+        <v>0.2067901125028462</v>
       </c>
       <c r="P19">
-        <v>0.1976804696166534</v>
+        <v>0.1485371126561165</v>
       </c>
       <c r="Q19">
-        <v>43.47158306198637</v>
+        <v>53.76760436203</v>
       </c>
       <c r="R19">
-        <v>43.47158306198637</v>
+        <v>322.60562617218</v>
       </c>
       <c r="S19">
-        <v>0.008074372499429877</v>
+        <v>0.009357547441733361</v>
       </c>
       <c r="T19">
-        <v>0.008074372499429877</v>
+        <v>0.008059097301577009</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.68533390214461</v>
+        <v>4.296528666666666</v>
       </c>
       <c r="H20">
-        <v>3.68533390214461</v>
+        <v>12.889586</v>
       </c>
       <c r="I20">
-        <v>0.09463294886937261</v>
+        <v>0.1066792765787147</v>
       </c>
       <c r="J20">
-        <v>0.09463294886937261</v>
+        <v>0.1279084439064906</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N20">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O20">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P20">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q20">
-        <v>4.574166778775244</v>
+        <v>5.427061365140665</v>
       </c>
       <c r="R20">
-        <v>4.574166778775244</v>
+        <v>32.562368190844</v>
       </c>
       <c r="S20">
-        <v>0.0008496015982138229</v>
+        <v>0.0009445089621542632</v>
       </c>
       <c r="T20">
-        <v>0.0008496015982138229</v>
+        <v>0.0008134492157918169</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.68533390214461</v>
+        <v>4.296528666666666</v>
       </c>
       <c r="H21">
-        <v>3.68533390214461</v>
+        <v>12.889586</v>
       </c>
       <c r="I21">
-        <v>0.09463294886937261</v>
+        <v>0.1066792765787147</v>
       </c>
       <c r="J21">
-        <v>0.09463294886937261</v>
+        <v>0.1279084439064906</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N21">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O21">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P21">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q21">
-        <v>58.1309187103037</v>
+        <v>71.12790781833222</v>
       </c>
       <c r="R21">
-        <v>58.1309187103037</v>
+        <v>640.15117036499</v>
       </c>
       <c r="S21">
-        <v>0.01079718423715538</v>
+        <v>0.01237888092167459</v>
       </c>
       <c r="T21">
-        <v>0.01079718423715538</v>
+        <v>0.01599178734389582</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.68533390214461</v>
+        <v>4.296528666666666</v>
       </c>
       <c r="H22">
-        <v>3.68533390214461</v>
+        <v>12.889586</v>
       </c>
       <c r="I22">
-        <v>0.09463294886937261</v>
+        <v>0.1066792765787147</v>
       </c>
       <c r="J22">
-        <v>0.09463294886937261</v>
+        <v>0.1279084439064906</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N22">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O22">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P22">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q22">
-        <v>154.9963692103905</v>
+        <v>185.4977686737638</v>
       </c>
       <c r="R22">
-        <v>154.9963692103905</v>
+        <v>1669.479918063874</v>
       </c>
       <c r="S22">
-        <v>0.02878888535711567</v>
+        <v>0.0322834575074769</v>
       </c>
       <c r="T22">
-        <v>0.02878888535711567</v>
+        <v>0.04170572367986131</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.68533390214461</v>
+        <v>4.296528666666666</v>
       </c>
       <c r="H23">
-        <v>3.68533390214461</v>
+        <v>12.889586</v>
       </c>
       <c r="I23">
-        <v>0.09463294886937261</v>
+        <v>0.1066792765787147</v>
       </c>
       <c r="J23">
-        <v>0.09463294886937261</v>
+        <v>0.1279084439064906</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N23">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O23">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P23">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q23">
-        <v>185.0686719590875</v>
+        <v>216.8682841090031</v>
       </c>
       <c r="R23">
-        <v>185.0686719590875</v>
+        <v>1951.814556981028</v>
       </c>
       <c r="S23">
-        <v>0.03437448765649311</v>
+        <v>0.03774308491583847</v>
       </c>
       <c r="T23">
-        <v>0.03437448765649311</v>
+        <v>0.0487588006941616</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.68533390214461</v>
+        <v>4.296528666666666</v>
       </c>
       <c r="H24">
-        <v>3.68533390214461</v>
+        <v>12.889586</v>
       </c>
       <c r="I24">
-        <v>0.09463294886937261</v>
+        <v>0.1066792765787147</v>
       </c>
       <c r="J24">
-        <v>0.09463294886937261</v>
+        <v>0.1279084439064906</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N24">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O24">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P24">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q24">
-        <v>6.006835805004824</v>
+        <v>7.292273254266444</v>
       </c>
       <c r="R24">
-        <v>6.006835805004824</v>
+        <v>65.630459288398</v>
       </c>
       <c r="S24">
-        <v>0.001115704246688307</v>
+        <v>0.001269124666135771</v>
       </c>
       <c r="T24">
-        <v>0.001115704246688307</v>
+        <v>0.001639532030573123</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.68533390214461</v>
+        <v>4.296528666666666</v>
       </c>
       <c r="H25">
-        <v>3.68533390214461</v>
+        <v>12.889586</v>
       </c>
       <c r="I25">
-        <v>0.09463294886937261</v>
+        <v>0.1066792765787147</v>
       </c>
       <c r="J25">
-        <v>0.09463294886937261</v>
+        <v>0.1279084439064906</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>27.3291402792182</v>
+        <v>29.501953</v>
       </c>
       <c r="N25">
-        <v>27.3291402792182</v>
+        <v>59.003906</v>
       </c>
       <c r="O25">
-        <v>0.1976804696166534</v>
+        <v>0.2067901125028462</v>
       </c>
       <c r="P25">
-        <v>0.1976804696166534</v>
+        <v>0.1485371126561165</v>
       </c>
       <c r="Q25">
-        <v>100.7170071874687</v>
+        <v>126.7559867871527</v>
       </c>
       <c r="R25">
-        <v>100.7170071874687</v>
+        <v>760.535920722916</v>
       </c>
       <c r="S25">
-        <v>0.01870708577370633</v>
+        <v>0.02206021960543465</v>
       </c>
       <c r="T25">
-        <v>0.01870708577370633</v>
+        <v>0.01899915094220695</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>13.4662325578375</v>
+        <v>13.85988766666667</v>
       </c>
       <c r="H26">
-        <v>13.4662325578375</v>
+        <v>41.579663</v>
       </c>
       <c r="I26">
-        <v>0.3457893724005126</v>
+        <v>0.3441296228774725</v>
       </c>
       <c r="J26">
-        <v>0.3457893724005126</v>
+        <v>0.4126113897285982</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N26">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O26">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P26">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q26">
-        <v>16.71403331065247</v>
+        <v>17.50679832873366</v>
       </c>
       <c r="R26">
-        <v>16.71403331065247</v>
+        <v>105.040789972402</v>
       </c>
       <c r="S26">
-        <v>0.003104449422181237</v>
+        <v>0.003046828994108424</v>
       </c>
       <c r="T26">
-        <v>0.003104449422181237</v>
+        <v>0.002624052026204567</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>13.4662325578375</v>
+        <v>13.85988766666667</v>
       </c>
       <c r="H27">
-        <v>13.4662325578375</v>
+        <v>41.579663</v>
       </c>
       <c r="I27">
-        <v>0.3457893724005126</v>
+        <v>0.3441296228774725</v>
       </c>
       <c r="J27">
-        <v>0.3457893724005126</v>
+        <v>0.4126113897285982</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N27">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O27">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P27">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q27">
-        <v>212.4107315481397</v>
+        <v>229.4468136510605</v>
       </c>
       <c r="R27">
-        <v>212.4107315481397</v>
+        <v>2065.021322859545</v>
       </c>
       <c r="S27">
-        <v>0.03945297706206222</v>
+        <v>0.0399322132642863</v>
       </c>
       <c r="T27">
-        <v>0.03945297706206222</v>
+        <v>0.05158684914525986</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>13.4662325578375</v>
+        <v>13.85988766666667</v>
       </c>
       <c r="H28">
-        <v>13.4662325578375</v>
+        <v>41.579663</v>
       </c>
       <c r="I28">
-        <v>0.3457893724005126</v>
+        <v>0.3441296228774725</v>
       </c>
       <c r="J28">
-        <v>0.3457893724005126</v>
+        <v>0.4126113897285982</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N28">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O28">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P28">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q28">
-        <v>566.357678524854</v>
+        <v>598.3849837153074</v>
       </c>
       <c r="R28">
-        <v>566.357678524854</v>
+        <v>5385.464853437767</v>
       </c>
       <c r="S28">
-        <v>0.1051947626982295</v>
+        <v>0.1041410704452191</v>
       </c>
       <c r="T28">
-        <v>0.1051947626982295</v>
+        <v>0.1345357357311362</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>13.4662325578375</v>
+        <v>13.85988766666667</v>
       </c>
       <c r="H29">
-        <v>13.4662325578375</v>
+        <v>41.579663</v>
       </c>
       <c r="I29">
-        <v>0.3457893724005126</v>
+        <v>0.3441296228774725</v>
       </c>
       <c r="J29">
-        <v>0.3457893724005126</v>
+        <v>0.4126113897285982</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N29">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O29">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P29">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q29">
-        <v>676.2420562003721</v>
+        <v>699.5810547088638</v>
       </c>
       <c r="R29">
-        <v>676.2420562003721</v>
+        <v>6296.229492379774</v>
       </c>
       <c r="S29">
-        <v>0.1256045875706073</v>
+        <v>0.1217529214189616</v>
       </c>
       <c r="T29">
-        <v>0.1256045875706073</v>
+        <v>0.1572877904028419</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>13.4662325578375</v>
+        <v>13.85988766666667</v>
       </c>
       <c r="H30">
-        <v>13.4662325578375</v>
+        <v>41.579663</v>
       </c>
       <c r="I30">
-        <v>0.3457893724005126</v>
+        <v>0.3441296228774725</v>
       </c>
       <c r="J30">
-        <v>0.3457893724005126</v>
+        <v>0.4126113897285982</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N30">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O30">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P30">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q30">
-        <v>21.94901467133491</v>
+        <v>23.52366200251211</v>
       </c>
       <c r="R30">
-        <v>21.94901467133491</v>
+        <v>211.712958022609</v>
       </c>
       <c r="S30">
-        <v>0.004076790122851153</v>
+        <v>0.0040939853245025</v>
       </c>
       <c r="T30">
-        <v>0.004076790122851153</v>
+        <v>0.005288857943842117</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>13.4662325578375</v>
+        <v>13.85988766666667</v>
       </c>
       <c r="H31">
-        <v>13.4662325578375</v>
+        <v>41.579663</v>
       </c>
       <c r="I31">
-        <v>0.3457893724005126</v>
+        <v>0.3441296228774725</v>
       </c>
       <c r="J31">
-        <v>0.3457893724005126</v>
+        <v>0.4126113897285982</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>27.3291402792182</v>
+        <v>29.501953</v>
       </c>
       <c r="N31">
-        <v>27.3291402792182</v>
+        <v>59.003906</v>
       </c>
       <c r="O31">
-        <v>0.1976804696166534</v>
+        <v>0.2067901125028462</v>
       </c>
       <c r="P31">
-        <v>0.1976804696166534</v>
+        <v>0.1485371126561165</v>
       </c>
       <c r="Q31">
-        <v>368.0205586057164</v>
+        <v>408.8937545272796</v>
       </c>
       <c r="R31">
-        <v>368.0205586057164</v>
+        <v>2453.362527163678</v>
       </c>
       <c r="S31">
-        <v>0.06835580552458118</v>
+        <v>0.07116260343039457</v>
       </c>
       <c r="T31">
-        <v>0.06835580552458118</v>
+        <v>0.06128810447931358</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.7113413768854</v>
+        <v>1.751899</v>
       </c>
       <c r="H32">
-        <v>1.7113413768854</v>
+        <v>3.503798</v>
       </c>
       <c r="I32">
-        <v>0.0439442626684639</v>
+        <v>0.04349821273366894</v>
       </c>
       <c r="J32">
-        <v>0.0439442626684639</v>
+        <v>0.03476956901041461</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N32">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O32">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P32">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q32">
-        <v>2.124084569036566</v>
+        <v>2.212870928172999</v>
       </c>
       <c r="R32">
-        <v>2.124084569036566</v>
+        <v>8.851483712691998</v>
       </c>
       <c r="S32">
-        <v>0.0003945255457165433</v>
+        <v>0.0003851212070633824</v>
       </c>
       <c r="T32">
-        <v>0.0003945255457165433</v>
+        <v>0.0002211212784796142</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.7113413768854</v>
+        <v>1.751899</v>
       </c>
       <c r="H33">
-        <v>1.7113413768854</v>
+        <v>3.503798</v>
       </c>
       <c r="I33">
-        <v>0.0439442626684639</v>
+        <v>0.04349821273366894</v>
       </c>
       <c r="J33">
-        <v>0.0439442626684639</v>
+        <v>0.03476956901041461</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N33">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O33">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P33">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q33">
-        <v>26.99398456335607</v>
+        <v>29.00222953142833</v>
       </c>
       <c r="R33">
-        <v>26.99398456335607</v>
+        <v>174.01337718857</v>
       </c>
       <c r="S33">
-        <v>0.005013838265277968</v>
+        <v>0.005047458259978435</v>
       </c>
       <c r="T33">
-        <v>0.005013838265277968</v>
+        <v>0.00434707464708079</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.7113413768854</v>
+        <v>1.751899</v>
       </c>
       <c r="H34">
-        <v>1.7113413768854</v>
+        <v>3.503798</v>
       </c>
       <c r="I34">
-        <v>0.0439442626684639</v>
+        <v>0.04349821273366894</v>
       </c>
       <c r="J34">
-        <v>0.0439442626684639</v>
+        <v>0.03476956901041461</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N34">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O34">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P34">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q34">
-        <v>71.97494363872683</v>
+        <v>75.63625909516367</v>
       </c>
       <c r="R34">
-        <v>71.97494363872683</v>
+        <v>453.817554570982</v>
       </c>
       <c r="S34">
-        <v>0.01336856089956243</v>
+        <v>0.01316350042365005</v>
       </c>
       <c r="T34">
-        <v>0.01336856089956243</v>
+        <v>0.01133693752600361</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.7113413768854</v>
+        <v>1.751899</v>
       </c>
       <c r="H35">
-        <v>1.7113413768854</v>
+        <v>3.503798</v>
       </c>
       <c r="I35">
-        <v>0.0439442626684639</v>
+        <v>0.04349821273366894</v>
       </c>
       <c r="J35">
-        <v>0.0439442626684639</v>
+        <v>0.03476956901041461</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N35">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O35">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P35">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q35">
-        <v>85.93947910785249</v>
+        <v>88.42750963350066</v>
       </c>
       <c r="R35">
-        <v>85.93947910785249</v>
+        <v>530.5650578010039</v>
       </c>
       <c r="S35">
-        <v>0.01596232108074662</v>
+        <v>0.01538965007587656</v>
       </c>
       <c r="T35">
-        <v>0.01596232108074662</v>
+        <v>0.01325418740016957</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.7113413768854</v>
+        <v>1.751899</v>
       </c>
       <c r="H36">
-        <v>1.7113413768854</v>
+        <v>3.503798</v>
       </c>
       <c r="I36">
-        <v>0.0439442626684639</v>
+        <v>0.04349821273366894</v>
       </c>
       <c r="J36">
-        <v>0.0439442626684639</v>
+        <v>0.03476956901041461</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N36">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O36">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P36">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q36">
-        <v>2.789366426548046</v>
+        <v>2.973406489985666</v>
       </c>
       <c r="R36">
-        <v>2.789366426548046</v>
+        <v>17.840438939914</v>
       </c>
       <c r="S36">
-        <v>0.0005180943959008287</v>
+        <v>0.0005174824622323614</v>
       </c>
       <c r="T36">
-        <v>0.0005180943959008287</v>
+        <v>0.0004456767695764664</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.7113413768854</v>
+        <v>1.751899</v>
       </c>
       <c r="H37">
-        <v>1.7113413768854</v>
+        <v>3.503798</v>
       </c>
       <c r="I37">
-        <v>0.0439442626684639</v>
+        <v>0.04349821273366894</v>
       </c>
       <c r="J37">
-        <v>0.0439442626684639</v>
+        <v>0.03476956901041461</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>27.3291402792182</v>
+        <v>29.501953</v>
       </c>
       <c r="N37">
-        <v>27.3291402792182</v>
+        <v>59.003906</v>
       </c>
       <c r="O37">
-        <v>0.1976804696166534</v>
+        <v>0.2067901125028462</v>
       </c>
       <c r="P37">
-        <v>0.1976804696166534</v>
+        <v>0.1485371126561165</v>
       </c>
       <c r="Q37">
-        <v>46.76948855453152</v>
+        <v>51.68444195874699</v>
       </c>
       <c r="R37">
-        <v>46.76948855453152</v>
+        <v>206.737767834988</v>
       </c>
       <c r="S37">
-        <v>0.008686922481259515</v>
+        <v>0.008995000304868137</v>
       </c>
       <c r="T37">
-        <v>0.008686922481259515</v>
+        <v>0.005164571389104572</v>
       </c>
     </row>
   </sheetData>
